--- a/xls/guildUpTaskConfig.xlsx
+++ b/xls/guildUpTaskConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -57,27 +57,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>openType[.][funcTupleInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
+    <t>0,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +520,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,7 +529,7 @@
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -542,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -571,16 +575,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
       <c r="D3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
+        <v>300000</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -590,16 +594,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
+        <v>600000</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -612,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>1001</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
-        <v>1002</v>
+        <v>2000000</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -631,13 +635,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>1002</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>1003</v>
+        <v>4000000</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -647,13 +651,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>1003</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3">
-        <v>1004</v>
+        <v>6000000</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>15</v>
@@ -666,13 +670,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>1004</v>
+        <v>48</v>
       </c>
       <c r="D8" s="3">
-        <v>1005</v>
+        <v>22000000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>15</v>
@@ -685,16 +689,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>1005</v>
+        <v>96</v>
       </c>
       <c r="D9" s="3">
-        <v>1006</v>
+        <v>40000000</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -704,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -713,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
